--- a/sources/config.xlsx
+++ b/sources/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JiangHai江海\PycharmProjects\kayotin_excel\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045A7FA0-36DF-4EFF-AE70-4A2477D143F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE5B695-1491-45BE-9EBE-71EEF740AFE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="102">
   <si>
     <t>固定数据开始列</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,9 +83,6 @@
     <t>大连康乐美</t>
   </si>
   <si>
-    <t>上海路捷</t>
-  </si>
-  <si>
     <t>上海鲲驰</t>
   </si>
   <si>
@@ -100,10 +97,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>销售合计（屈臣氏）,U,V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>销售合计,U,V</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -132,53 +125,257 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数据开始列</t>
+    <t>销售合计（天猫个护旗舰店）,AG,AH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售合计（EC其他）,AS,AT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>商品代码</t>
+  </si>
+  <si>
+    <t>品牌</t>
+  </si>
+  <si>
+    <t>箱入数</t>
+  </si>
+  <si>
+    <t>容量</t>
+  </si>
+  <si>
+    <t>条码</t>
+  </si>
+  <si>
+    <t>零售价</t>
+  </si>
+  <si>
+    <t>瓶数</t>
+  </si>
+  <si>
+    <t>金额（零售额）</t>
+  </si>
+  <si>
+    <t>渠道</t>
+  </si>
+  <si>
+    <t>商  品  名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据开始行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIC-线上</t>
+  </si>
+  <si>
+    <t>BIC-线下</t>
+  </si>
+  <si>
+    <t>上海恒城致美</t>
+  </si>
+  <si>
+    <t>上海旭一</t>
+  </si>
+  <si>
+    <t>上海灵芬</t>
+  </si>
+  <si>
+    <t>上海耀广</t>
+  </si>
+  <si>
+    <t>上海路捷2</t>
+  </si>
+  <si>
+    <t>上海青鸾</t>
+  </si>
+  <si>
+    <t>中恒美康</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乌鲁木齐简时美 </t>
+  </si>
+  <si>
+    <t>优趣汇</t>
+  </si>
+  <si>
+    <t>北京润合美</t>
+  </si>
+  <si>
+    <t>南通荣耀</t>
+  </si>
+  <si>
+    <t>厦门汇都</t>
+  </si>
+  <si>
+    <t>合肥信诺兴</t>
+  </si>
+  <si>
+    <t>哈尔滨路捷</t>
+  </si>
+  <si>
+    <t>四川叁生万祺</t>
+  </si>
+  <si>
+    <t>四川橙小橙</t>
+  </si>
+  <si>
+    <t>天津江杉</t>
+  </si>
+  <si>
+    <t>宁夏黎姿</t>
+  </si>
+  <si>
+    <t>宁波宝敏瑞</t>
+  </si>
+  <si>
+    <t>宁波明星宏业</t>
+  </si>
+  <si>
+    <t>宜昌悦诚</t>
+  </si>
+  <si>
+    <t>山西优品仓</t>
+  </si>
+  <si>
+    <t>广州新研</t>
+  </si>
+  <si>
+    <t>徐州宝源</t>
+  </si>
+  <si>
+    <t>新疆东诚利信</t>
+  </si>
+  <si>
+    <t>无锡潮联</t>
+  </si>
+  <si>
+    <t xml:space="preserve">昆明锦宽 </t>
+  </si>
+  <si>
+    <t>杭州中纬</t>
+  </si>
+  <si>
+    <t>杭州其信</t>
+  </si>
+  <si>
+    <t>杭州远汇</t>
+  </si>
+  <si>
+    <t>武汉橙果</t>
+  </si>
+  <si>
+    <t>河北劲草</t>
+  </si>
+  <si>
+    <t>河南空杯</t>
+  </si>
+  <si>
+    <t>海南慧海鸿宇</t>
+  </si>
+  <si>
+    <t>海口东岭</t>
+  </si>
+  <si>
+    <t>石家庄杰庆</t>
+  </si>
+  <si>
+    <t>苏州中联</t>
+  </si>
+  <si>
+    <t>苏州凡略</t>
+  </si>
+  <si>
+    <t>苏州弘笑</t>
+  </si>
+  <si>
+    <t>苏州锦丰嘉</t>
+  </si>
+  <si>
+    <t>西安方尔</t>
+  </si>
+  <si>
+    <t>重庆依生堂</t>
+  </si>
+  <si>
+    <t>重庆君集</t>
+  </si>
+  <si>
+    <t>重庆汇肯达</t>
+  </si>
+  <si>
+    <t>长沙悦蓝轩</t>
+  </si>
+  <si>
+    <t>长沙爱丽</t>
+  </si>
+  <si>
+    <t>长沙顺博</t>
+  </si>
+  <si>
+    <t>青岛嘉康新通</t>
+  </si>
+  <si>
+    <t>青岛德汇通</t>
+  </si>
+  <si>
+    <t>青岛福兴祥</t>
+  </si>
+  <si>
+    <t>销售合计（线下）,U,V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售合计（线上）,AA,AB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进销存明细（总体）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售合计（屈臣氏）	,U,V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售合计（抖音）	,U,V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售合计（天猫超市）,U,V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售合计（拼多多）,AA,AB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售合计（线上其他）,AG,AH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拼多多销售合计,U,V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抖音销售合计,AA,AB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快手销售合计,U,V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快手销售合计,AA,AB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>销售合计（京东系）,AA,AB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售合计（天猫个护旗舰店）,AG,AH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售合计（EC其他）,AS,AT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>商品代码</t>
-  </si>
-  <si>
-    <t>品牌</t>
-  </si>
-  <si>
-    <t>箱入数</t>
-  </si>
-  <si>
-    <t>容量</t>
-  </si>
-  <si>
-    <t>条码</t>
-  </si>
-  <si>
-    <t>零售价</t>
-  </si>
-  <si>
-    <t>瓶数</t>
-  </si>
-  <si>
-    <t>金额（零售额）</t>
-  </si>
-  <si>
-    <t>渠道</t>
-  </si>
-  <si>
-    <t>商  品  名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -217,7 +414,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -227,6 +424,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,7 +461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -275,6 +478,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -556,22 +761,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.875" customWidth="1"/>
-    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="29" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -582,7 +787,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
@@ -591,21 +796,21 @@
         <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -620,20 +825,18 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G2" s="5"/>
       <c r="H2" s="4"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="C3" s="1">
         <v>4</v>
@@ -645,17 +848,15 @@
         <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>8</v>
@@ -670,21 +871,17 @@
         <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
@@ -699,11 +896,1206 @@
         <v>9</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="1">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="1">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="1">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1">
+        <v>4</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="1">
+        <v>4</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="1">
+        <v>4</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="1">
+        <v>4</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="1">
+        <v>4</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="1">
+        <v>4</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="1">
+        <v>4</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="1">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="1">
+        <v>4</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="1">
+        <v>4</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="1">
+        <v>4</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="1">
+        <v>4</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="1">
+        <v>4</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="1">
+        <v>4</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="1">
+        <v>4</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="1">
+        <v>4</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="1">
+        <v>4</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="1">
+        <v>4</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="1">
+        <v>4</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="1">
+        <v>4</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="1">
+        <v>4</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="1">
+        <v>4</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="1">
+        <v>4</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="1">
+        <v>4</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="1">
+        <v>4</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="1">
+        <v>4</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="1">
+        <v>4</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="1">
+        <v>4</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="1">
+        <v>4</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="1">
+        <v>4</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="1">
+        <v>4</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="1">
+        <v>4</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="1">
+        <v>4</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="1">
+        <v>4</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="1">
+        <v>4</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -717,10 +2109,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4A96E2B-99D3-4C20-AF00-F83CCB56BA94}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -730,37 +2123,37 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="H1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="I1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="J1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="K1" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>3</v>

--- a/sources/config.xlsx
+++ b/sources/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JiangHai江海\PycharmProjects\kayotin_excel\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE5B695-1491-45BE-9EBE-71EEF740AFE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7989D00-BF7A-4B59-82C5-94089495FC6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="101">
   <si>
     <t>固定数据开始列</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -368,10 +368,6 @@
   </si>
   <si>
     <t>快手销售合计,U,V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快手销售合计,AA,AB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -763,8 +759,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1015,7 +1011,7 @@
         <v>9</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>23</v>
@@ -1722,7 +1718,7 @@
         <v>99</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
